--- a/TestData/WHS011_WarehouseShipmentEnquiry_TestData.xlsx
+++ b/TestData/WHS011_WarehouseShipmentEnquiry_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Xunit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-ssaha1\Desktop\ICargo KT\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ED2E15-3FD4-4ABF-8C85-E89193DD4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF3C9F-E846-46DB-960A-BC4608F7E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{07A5B92E-934E-4B41-B4E7-FF52B8BA8ECB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{07A5B92E-934E-4B41-B4E7-FF52B8BA8ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="WHS011_WSE_00001" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="33">
   <si>
     <t>AgentCode</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>CREDIT</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>GOLDSTREAK</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>OME</t>
+  </si>
+  <si>
+    <t>PDX</t>
+  </si>
+  <si>
+    <t>JNU</t>
+  </si>
+  <si>
+    <t>KTN</t>
+  </si>
+  <si>
+    <t>WRG</t>
   </si>
 </sst>
 </file>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A266E7-28BE-4E1E-8550-D432A75AAD84}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,7 +519,7 @@
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -591,6 +615,622 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="C4">
+        <v>11377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11377</v>
+      </c>
+      <c r="B5">
+        <v>11377</v>
+      </c>
+      <c r="C5">
+        <v>11377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11377</v>
+      </c>
+      <c r="B6">
+        <v>11377</v>
+      </c>
+      <c r="C6">
+        <v>11377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11377</v>
+      </c>
+      <c r="B7">
+        <v>11377</v>
+      </c>
+      <c r="C7">
+        <v>11377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11377</v>
+      </c>
+      <c r="B8">
+        <v>11377</v>
+      </c>
+      <c r="C8">
+        <v>11377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11377</v>
+      </c>
+      <c r="B9">
+        <v>11377</v>
+      </c>
+      <c r="C9">
+        <v>11377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11377</v>
+      </c>
+      <c r="B10">
+        <v>11377</v>
+      </c>
+      <c r="C10">
+        <v>11377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>90</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11377</v>
+      </c>
+      <c r="B11">
+        <v>11377</v>
+      </c>
+      <c r="C11">
+        <v>11377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11377</v>
+      </c>
+      <c r="B12">
+        <v>11377</v>
+      </c>
+      <c r="C12">
+        <v>11377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>110</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11377</v>
+      </c>
+      <c r="B13">
+        <v>11377</v>
+      </c>
+      <c r="C13">
+        <v>11377</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>130</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11377</v>
+      </c>
+      <c r="B14">
+        <v>11377</v>
+      </c>
+      <c r="C14">
+        <v>11377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>11377</v>
+      </c>
+      <c r="B15">
+        <v>11377</v>
+      </c>
+      <c r="C15">
+        <v>11377</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>15</v>
+      </c>
+      <c r="L15">
+        <v>150</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11377</v>
+      </c>
+      <c r="B16">
+        <v>11377</v>
+      </c>
+      <c r="C16">
+        <v>11377</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>160</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA239D73-96B9-4245-A7B7-F08EABD383CC}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,6 +1360,706 @@
         <v>80</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>11377</v>
+      </c>
+      <c r="B3">
+        <v>11377</v>
+      </c>
+      <c r="C3">
+        <v>11377</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11377</v>
+      </c>
+      <c r="B4">
+        <v>11377</v>
+      </c>
+      <c r="C4">
+        <v>11377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11377</v>
+      </c>
+      <c r="B5">
+        <v>11377</v>
+      </c>
+      <c r="C5">
+        <v>11377</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>11377</v>
+      </c>
+      <c r="B6">
+        <v>11377</v>
+      </c>
+      <c r="C6">
+        <v>11377</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>11377</v>
+      </c>
+      <c r="B7">
+        <v>11377</v>
+      </c>
+      <c r="C7">
+        <v>11377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>11377</v>
+      </c>
+      <c r="B8">
+        <v>11377</v>
+      </c>
+      <c r="C8">
+        <v>11377</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>11377</v>
+      </c>
+      <c r="B9">
+        <v>11377</v>
+      </c>
+      <c r="C9">
+        <v>11377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>11377</v>
+      </c>
+      <c r="B10">
+        <v>11377</v>
+      </c>
+      <c r="C10">
+        <v>11377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>11377</v>
+      </c>
+      <c r="B11">
+        <v>11377</v>
+      </c>
+      <c r="C11">
+        <v>11377</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11377</v>
+      </c>
+      <c r="B12">
+        <v>11377</v>
+      </c>
+      <c r="C12">
+        <v>11377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11377</v>
+      </c>
+      <c r="B13">
+        <v>11377</v>
+      </c>
+      <c r="C13">
+        <v>11377</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>110</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11377</v>
+      </c>
+      <c r="B14">
+        <v>11377</v>
+      </c>
+      <c r="C14">
+        <v>11377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>11377</v>
+      </c>
+      <c r="B15">
+        <v>11377</v>
+      </c>
+      <c r="C15">
+        <v>11377</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>11377</v>
+      </c>
+      <c r="B16">
+        <v>11377</v>
+      </c>
+      <c r="C16">
+        <v>11377</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
